--- a/output/MOAT_24140256000162.xlsx
+++ b/output/MOAT_24140256000162.xlsx
@@ -999,10 +999,10 @@
         <v>44165</v>
       </c>
       <c r="B56">
-        <v>0.6851301000000001</v>
+        <v>0.6818900000000001</v>
       </c>
       <c r="C56">
-        <v>0.007166527357700847</v>
+        <v>0.005229988294460863</v>
       </c>
     </row>
   </sheetData>

--- a/output/MOAT_24140256000162.xlsx
+++ b/output/MOAT_24140256000162.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>MOAT CAPITAL EQUITY HEDGE FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,623 +383,458 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42521</v>
       </c>
       <c r="B2">
-        <v>-0.002901200000000048</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42551</v>
       </c>
       <c r="B3">
-        <v>0.02895359999999991</v>
-      </c>
-      <c r="C3">
         <v>0.03194748604651809</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42582</v>
       </c>
       <c r="B4">
-        <v>0.0641773000000001</v>
-      </c>
-      <c r="C4">
         <v>0.03423254459676328</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42613</v>
       </c>
       <c r="B5">
-        <v>0.0874417999999999</v>
-      </c>
-      <c r="C5">
         <v>0.0218614886823838</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42643</v>
       </c>
       <c r="B6">
-        <v>0.1058728</v>
-      </c>
-      <c r="C6">
         <v>0.01694895303822253</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42674</v>
       </c>
       <c r="B7">
-        <v>0.1322623000000001</v>
-      </c>
-      <c r="C7">
         <v>0.02386305188083115</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42704</v>
       </c>
       <c r="B8">
-        <v>0.1371718</v>
-      </c>
-      <c r="C8">
         <v>0.004336009421138431</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42735</v>
       </c>
       <c r="B9">
-        <v>0.1596641000000001</v>
-      </c>
-      <c r="C9">
         <v>0.01977915737973812</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42766</v>
       </c>
       <c r="B10">
-        <v>0.1938105999999999</v>
-      </c>
-      <c r="C10">
         <v>0.02944516433681077</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42794</v>
       </c>
       <c r="B11">
-        <v>0.2028213000000001</v>
-      </c>
-      <c r="C11">
         <v>0.007547847204573355</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42825</v>
       </c>
       <c r="B12">
-        <v>0.2039363999999999</v>
-      </c>
-      <c r="C12">
         <v>0.0009270703802799485</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42855</v>
       </c>
       <c r="B13">
-        <v>0.2247151999999999</v>
-      </c>
-      <c r="C13">
         <v>0.01725905122562943</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42886</v>
       </c>
       <c r="B14">
-        <v>0.1788806999999999</v>
-      </c>
-      <c r="C14">
         <v>-0.0374246192094293</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42916</v>
       </c>
       <c r="B15">
-        <v>0.1916498</v>
-      </c>
-      <c r="C15">
         <v>0.01083154554994414</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42947</v>
       </c>
       <c r="B16">
-        <v>0.2252569</v>
-      </c>
-      <c r="C16">
         <v>0.02820216140681597</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42978</v>
       </c>
       <c r="B17">
-        <v>0.252294</v>
-      </c>
-      <c r="C17">
         <v>0.02206647438590226</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43008</v>
       </c>
       <c r="B18">
-        <v>0.2709649999999999</v>
-      </c>
-      <c r="C18">
         <v>0.01490943819901713</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43039</v>
       </c>
       <c r="B19">
-        <v>0.2646364999999999</v>
-      </c>
-      <c r="C19">
         <v>-0.004979287391863596</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43069</v>
       </c>
       <c r="B20">
-        <v>0.2457064</v>
-      </c>
-      <c r="C20">
         <v>-0.01496880724223915</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43100</v>
       </c>
       <c r="B21">
-        <v>0.2822266</v>
-      </c>
-      <c r="C21">
         <v>0.02931685989571853</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43131</v>
       </c>
       <c r="B22">
-        <v>0.3265673</v>
-      </c>
-      <c r="C22">
         <v>0.03458101711507156</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43159</v>
       </c>
       <c r="B23">
-        <v>0.3396965000000001</v>
-      </c>
-      <c r="C23">
         <v>0.009897123199102076</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43190</v>
       </c>
       <c r="B24">
-        <v>0.3495855999999999</v>
-      </c>
-      <c r="C24">
         <v>0.007381597249824789</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43220</v>
       </c>
       <c r="B25">
-        <v>0.3612749</v>
-      </c>
-      <c r="C25">
         <v>0.00866139946958544</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43251</v>
       </c>
       <c r="B26">
-        <v>0.3445855</v>
-      </c>
-      <c r="C26">
         <v>-0.0122601246816495</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43281</v>
       </c>
       <c r="B27">
-        <v>0.3062737</v>
-      </c>
-      <c r="C27">
         <v>-0.02849339071408996</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43312</v>
       </c>
       <c r="B28">
-        <v>0.3362977</v>
-      </c>
-      <c r="C28">
         <v>0.02298446336322946</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43343</v>
       </c>
       <c r="B29">
-        <v>0.2974566000000001</v>
-      </c>
-      <c r="C29">
         <v>-0.02906620283788552</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43373</v>
       </c>
       <c r="B30">
-        <v>0.3018067</v>
-      </c>
-      <c r="C30">
         <v>0.003352790374645309</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43404</v>
       </c>
       <c r="B31">
-        <v>0.3709099</v>
-      </c>
-      <c r="C31">
         <v>0.0530825352181703</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43434</v>
       </c>
       <c r="B32">
-        <v>0.3825392000000001</v>
-      </c>
-      <c r="C32">
         <v>0.008482906134093859</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43465</v>
       </c>
       <c r="B33">
-        <v>0.3809677</v>
-      </c>
-      <c r="C33">
         <v>-0.001136676630941191</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43496</v>
       </c>
       <c r="B34">
-        <v>0.4099735</v>
-      </c>
-      <c r="C34">
         <v>0.0210039670008213</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43524</v>
       </c>
       <c r="B35">
-        <v>0.4072454999999999</v>
-      </c>
-      <c r="C35">
         <v>-0.001934788136089161</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43555</v>
       </c>
       <c r="B36">
-        <v>0.4079661000000001</v>
-      </c>
-      <c r="C36">
         <v>0.0005120641707507811</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43585</v>
       </c>
       <c r="B37">
-        <v>0.4060994</v>
-      </c>
-      <c r="C37">
         <v>-0.001325813171212054</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43616</v>
       </c>
       <c r="B38">
-        <v>0.3924737</v>
-      </c>
-      <c r="C38">
         <v>-0.009690424446522017</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43646</v>
       </c>
       <c r="B39">
-        <v>0.4203462</v>
-      </c>
-      <c r="C39">
         <v>0.02001653603942399</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43677</v>
       </c>
       <c r="B40">
-        <v>0.4658047999999999</v>
-      </c>
-      <c r="C40">
         <v>0.03200529561032361</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43708</v>
       </c>
       <c r="B41">
-        <v>0.4751303</v>
-      </c>
-      <c r="C41">
         <v>0.006362034017080687</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43738</v>
       </c>
       <c r="B42">
-        <v>0.4839467</v>
-      </c>
-      <c r="C42">
         <v>0.005976692364057623</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43769</v>
       </c>
       <c r="B43">
-        <v>0.4937613999999999</v>
-      </c>
-      <c r="C43">
         <v>0.006613916793642316</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43799</v>
       </c>
       <c r="B44">
-        <v>0.509924</v>
-      </c>
-      <c r="C44">
         <v>0.01082006805102886</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43830</v>
       </c>
       <c r="B45">
-        <v>0.5553267</v>
-      </c>
-      <c r="C45">
         <v>0.03006952667816387</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43861</v>
       </c>
       <c r="B46">
-        <v>0.5461597</v>
-      </c>
-      <c r="C46">
         <v>-0.005893938553231282</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43890</v>
       </c>
       <c r="B47">
-        <v>0.5509915000000001</v>
-      </c>
-      <c r="C47">
         <v>0.003125032944527151</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43921</v>
       </c>
       <c r="B48">
-        <v>0.4658351999999999</v>
-      </c>
-      <c r="C48">
         <v>-0.05490442726475298</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43951</v>
       </c>
       <c r="B49">
-        <v>0.5396261</v>
-      </c>
-      <c r="C49">
         <v>0.05034051576875775</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43982</v>
       </c>
       <c r="B50">
-        <v>0.6100213999999999</v>
-      </c>
-      <c r="C50">
         <v>0.04572233479284349</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>44012</v>
       </c>
       <c r="B51">
-        <v>0.6681621</v>
-      </c>
-      <c r="C51">
         <v>0.03611175603007521</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>44043</v>
       </c>
       <c r="B52">
-        <v>0.707703</v>
-      </c>
-      <c r="C52">
         <v>0.02370327200216327</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>44074</v>
       </c>
       <c r="B53">
-        <v>0.7378275999999999</v>
-      </c>
-      <c r="C53">
         <v>0.01764042108024633</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>44104</v>
       </c>
       <c r="B54">
-        <v>0.7008601999999999</v>
-      </c>
-      <c r="C54">
         <v>-0.02127219063617125</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>44135</v>
       </c>
       <c r="B55">
-        <v>0.6731395</v>
-      </c>
-      <c r="C55">
         <v>-0.01629804730571038</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>44165</v>
       </c>
       <c r="B56">
-        <v>0.6818900000000001</v>
-      </c>
-      <c r="C56">
-        <v>0.005229988294460863</v>
+        <v>-0.003893100366108126</v>
       </c>
     </row>
   </sheetData>
